--- a/Data_File/task_file.xlsx
+++ b/Data_File/task_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>S.No</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>Date</t>
@@ -396,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,10 +460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,17 +474,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
+      <c r="C1" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2"/>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3"/>
@@ -496,14 +494,6 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
